--- a/FishLandings/household groups/statistics/Planktivorous (%)_output.xlsx
+++ b/FishLandings/household groups/statistics/Planktivorous (%)_output.xlsx
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>115.184878</v>
+        <v>297.431458</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>1.278897</v>
+        <v>3.280761</v>
       </c>
       <c r="E3">
-        <v>0.280378</v>
+        <v>0.038822</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>10042.337357</v>
+        <v>15049.442186</v>
       </c>
       <c r="C4">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>1.944444</v>
+        <v>2.352538</v>
       </c>
       <c r="H5">
-        <v>-0.986341</v>
+        <v>-0.088504</v>
       </c>
       <c r="I5">
-        <v>4.87523</v>
+        <v>4.793579</v>
       </c>
       <c r="J5">
-        <v>0.262836</v>
+        <v>0.061657</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>1.140174</v>
+        <v>0.821018</v>
       </c>
       <c r="H6">
-        <v>-2.015661</v>
+        <v>-1.742903</v>
       </c>
       <c r="I6">
-        <v>4.29601</v>
+        <v>3.38494</v>
       </c>
       <c r="J6">
-        <v>0.670782</v>
+        <v>0.7314889999999999</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>-0.80427</v>
+        <v>-1.53152</v>
       </c>
       <c r="H7">
-        <v>-3.190115</v>
+        <v>-3.459417</v>
       </c>
       <c r="I7">
-        <v>1.581575</v>
+        <v>0.396378</v>
       </c>
       <c r="J7">
-        <v>0.706256</v>
+        <v>0.148985</v>
       </c>
     </row>
   </sheetData>

--- a/FishLandings/household groups/statistics/Planktivorous (%)_output.xlsx
+++ b/FishLandings/household groups/statistics/Planktivorous (%)_output.xlsx
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>297.431458</v>
+        <v>115.184878</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>3.280761</v>
+        <v>1.278897</v>
       </c>
       <c r="E3">
-        <v>0.038822</v>
+        <v>0.280378</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>15049.442186</v>
+        <v>10042.337357</v>
       </c>
       <c r="C4">
-        <v>332</v>
+        <v>223</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>2.352538</v>
+        <v>1.944444</v>
       </c>
       <c r="H5">
-        <v>-0.088504</v>
+        <v>-0.986341</v>
       </c>
       <c r="I5">
-        <v>4.793579</v>
+        <v>4.87523</v>
       </c>
       <c r="J5">
-        <v>0.061657</v>
+        <v>0.262836</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>0.821018</v>
+        <v>1.140174</v>
       </c>
       <c r="H6">
-        <v>-1.742903</v>
+        <v>-2.015661</v>
       </c>
       <c r="I6">
-        <v>3.38494</v>
+        <v>4.29601</v>
       </c>
       <c r="J6">
-        <v>0.7314889999999999</v>
+        <v>0.670782</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>-1.53152</v>
+        <v>-0.80427</v>
       </c>
       <c r="H7">
-        <v>-3.459417</v>
+        <v>-3.190115</v>
       </c>
       <c r="I7">
-        <v>0.396378</v>
+        <v>1.581575</v>
       </c>
       <c r="J7">
-        <v>0.148985</v>
+        <v>0.706256</v>
       </c>
     </row>
   </sheetData>
